--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9389E-9971-6B4B-B3DA-4D7C54E1B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D8EB4A-A433-7142-9AD9-2323DE4D3885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="4560" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="1560" yWindow="2560" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Muppala</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
   <si>
     <t>Rakesh</t>
@@ -826,7 +832,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,256 +846,256 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1101,12 +1107,18 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1138,24 +1150,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M1" s="5"/>
     </row>
@@ -1164,37 +1176,37 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1203,19 +1215,19 @@
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1224,19 +1236,19 @@
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1245,19 +1257,19 @@
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1266,19 +1278,19 @@
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1287,19 +1299,19 @@
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1308,19 +1320,19 @@
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1329,19 +1341,19 @@
     </row>
     <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1350,19 +1362,19 @@
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1371,19 +1383,19 @@
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1392,19 +1404,19 @@
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1413,19 +1425,19 @@
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1434,19 +1446,19 @@
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1455,19 +1467,19 @@
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1476,19 +1488,19 @@
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1497,19 +1509,19 @@
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1518,19 +1530,19 @@
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1539,19 +1551,19 @@
     </row>
     <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1560,19 +1572,19 @@
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1581,19 +1593,19 @@
     </row>
     <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D8EB4A-A433-7142-9AD9-2323DE4D3885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BAEF94-5638-FC4C-A31D-CFA4CD09504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2560" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="2980" yWindow="5260" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Vyasa</t>
   </si>
   <si>
-    <t>Jayasree</t>
-  </si>
-  <si>
-    <t>Muppala</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
     <t>Jain</t>
   </si>
   <si>
+    <t>Saleem</t>
+  </si>
+  <si>
+    <t>Gaziani</t>
+  </si>
+  <si>
     <t>Virtual Machine Portal</t>
   </si>
   <si>
@@ -315,9 +315,6 @@
     <t>Leonel</t>
   </si>
   <si>
-    <t>Govind</t>
-  </si>
-  <si>
     <t>Jayesh</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
   </si>
   <si>
     <t>Siqueiros</t>
-  </si>
-  <si>
-    <t>Venkatachalapathy</t>
   </si>
   <si>
     <t>WNS2022-16</t>
@@ -394,7 +388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,6 +433,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="1"/>
@@ -472,10 +473,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -485,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,6 +504,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,7 +846,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,17 +879,17 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>94</v>
+      <c r="B2" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -883,242 +897,236 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="7" t="s">
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7" t="s">
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7" t="s">
+    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1149,468 +1157,468 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BAEF94-5638-FC4C-A31D-CFA4CD09504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434E3A3-E34E-3F4E-9F0E-CFA0A7BBE539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="5260" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>WNS2022-20</t>
-  </si>
-  <si>
-    <t>WNS2022-21</t>
   </si>
 </sst>
 </file>
@@ -846,7 +843,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,9 +1122,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="D22" s="8" t="s">
-        <v>114</v>
-      </c>
+      <c r="D22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9434E3A3-E34E-3F4E-9F0E-CFA0A7BBE539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B918FF1-AC60-D64D-A42B-B76D14A4EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="5260" windowWidth="35360" windowHeight="18160" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27960" windowHeight="21100" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -150,69 +150,6 @@
     <t>iis-student33</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Alam, Saad</t>
-  </si>
-  <si>
-    <t>Alzate Carvajal, Sam</t>
-  </si>
-  <si>
-    <t>Arla, Krishna Raja Sekhar</t>
-  </si>
-  <si>
-    <t>Cheema, Ahmer</t>
-  </si>
-  <si>
-    <t>Fleming, George</t>
-  </si>
-  <si>
-    <t>Gaziani, Saleem</t>
-  </si>
-  <si>
-    <t>Gilani, Faruq</t>
-  </si>
-  <si>
-    <t>Harris, Sam</t>
-  </si>
-  <si>
-    <t>Hill, Ardezia</t>
-  </si>
-  <si>
-    <t>Inturi, Vijaya</t>
-  </si>
-  <si>
-    <t>Jain, Rakesh</t>
-  </si>
-  <si>
-    <t>Jones, Nnamdi</t>
-  </si>
-  <si>
-    <t>Leelakrishnan, Srihari</t>
-  </si>
-  <si>
-    <t>Liu, Annie</t>
-  </si>
-  <si>
-    <t>Muppala, Jayasree</t>
-  </si>
-  <si>
-    <t>Palakurthy, Swapna</t>
-  </si>
-  <si>
-    <t>Veerapathiran, Varun</t>
-  </si>
-  <si>
-    <t>Vyasa, Jayesh</t>
-  </si>
-  <si>
-    <t>White, John</t>
-  </si>
-  <si>
-    <t>Yarlagadda, Sitaram</t>
-  </si>
-  <si>
     <t>TEKwns2022!</t>
   </si>
   <si>
@@ -379,13 +316,16 @@
   </si>
   <si>
     <t>WNS2022-20</t>
+  </si>
+  <si>
+    <t>Instructor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,12 +390,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -501,8 +435,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958E8A9-E161-5C44-B8F2-734EF675BF3B}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -876,253 +812,258 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>93</v>
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>58</v>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="8" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="8" t="s">
-        <v>111</v>
+      <c r="D19" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1138,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935CD4B2-296E-3842-BB6A-4DBF3071FB4D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,9 +1094,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -1196,10 +1139,12 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -1217,10 +1162,12 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1238,10 +1185,12 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -1259,10 +1208,12 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>16</v>
@@ -1280,10 +1231,12 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -1301,10 +1254,12 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -1322,10 +1277,12 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
         <v>16</v>
@@ -1343,10 +1300,12 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
@@ -1364,10 +1323,12 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
         <v>16</v>
@@ -1385,10 +1346,12 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
         <v>16</v>
@@ -1406,10 +1369,12 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
         <v>16</v>
@@ -1427,10 +1392,12 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
         <v>16</v>
@@ -1448,10 +1415,12 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
         <v>16</v>
@@ -1469,10 +1438,12 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
         <v>16</v>
@@ -1490,10 +1461,12 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
         <v>16</v>
@@ -1511,10 +1484,12 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
         <v>16</v>
@@ -1532,10 +1507,12 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
         <v>16</v>
@@ -1553,10 +1530,12 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6"/>
+      <c r="A20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
         <v>16</v>
@@ -1574,10 +1553,12 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
         <v>16</v>
@@ -1595,10 +1576,12 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
         <v>16</v>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B918FF1-AC60-D64D-A42B-B76D14A4EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121ABE0-4C14-DD4B-BBFE-F971EA5AD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27960" windowHeight="21100" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>@innovationinsoftware.com</t>
   </si>
   <si>
     <t>iis-student#</t>
@@ -793,10 +790,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -813,17 +810,17 @@
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -831,70 +828,70 @@
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -907,115 +904,115 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1027,19 +1024,19 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1051,7 +1048,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1059,10 +1056,10 @@
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1091,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1121,40 +1118,38 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1163,21 +1158,21 @@
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1186,21 +1181,21 @@
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1209,21 +1204,21 @@
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1232,21 +1227,21 @@
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1255,21 +1250,21 @@
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1278,21 +1273,21 @@
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1308,14 +1303,14 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1324,21 +1319,21 @@
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1347,21 +1342,21 @@
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1370,21 +1365,21 @@
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1393,21 +1388,21 @@
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1416,21 +1411,21 @@
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1439,21 +1434,21 @@
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1462,21 +1457,21 @@
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1485,21 +1480,21 @@
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1508,21 +1503,21 @@
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1538,14 +1533,14 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1554,21 +1549,21 @@
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1584,14 +1579,14 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jruels/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_6015683308586355968/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9121ABE0-4C14-DD4B-BBFE-F971EA5AD916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9292CEA0-EBA6-9D44-B8BC-40E8885AB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27960" windowHeight="21100" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="2840" yWindow="2180" windowWidth="29360" windowHeight="17120" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -129,9 +129,6 @@
     <t>iis-student19</t>
   </si>
   <si>
-    <t>iis-student20</t>
-  </si>
-  <si>
     <t>iis-student21</t>
   </si>
   <si>
@@ -316,6 +313,12 @@
   </si>
   <si>
     <t>Instructor</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>iis-student34</t>
   </si>
 </sst>
 </file>
@@ -790,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -810,17 +813,17 @@
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -828,70 +831,70 @@
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -904,115 +907,115 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1024,19 +1027,19 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1048,7 +1051,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1056,10 +1059,10 @@
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1076,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935CD4B2-296E-3842-BB6A-4DBF3071FB4D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,10 +1094,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -1158,10 +1161,10 @@
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1181,10 +1184,10 @@
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1204,10 +1207,10 @@
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1227,10 +1230,10 @@
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -1250,10 +1253,10 @@
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -1273,10 +1276,10 @@
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -1319,10 +1322,10 @@
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -1342,10 +1345,10 @@
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -1365,10 +1368,10 @@
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -1388,10 +1391,10 @@
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -1411,10 +1414,10 @@
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -1434,10 +1437,10 @@
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
@@ -1457,10 +1460,10 @@
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -1471,19 +1474,21 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
@@ -1494,19 +1499,21 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -1517,7 +1524,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1540,7 +1547,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1549,7 +1556,7 @@
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>1</v>
@@ -1563,7 +1570,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1586,7 +1593,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_6015683308586355968/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9292CEA0-EBA6-9D44-B8BC-40E8885AB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{9292CEA0-EBA6-9D44-B8BC-40E8885AB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59172441-B2EA-CD4C-96FE-D1AB57FA4A6B}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2180" windowWidth="29360" windowHeight="17120" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="0" yWindow="3180" windowWidth="27960" windowHeight="21100" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
   <si>
     <t>Virtual Machine Password</t>
   </si>
@@ -129,9 +129,6 @@
     <t>iis-student19</t>
   </si>
   <si>
-    <t>iis-student21</t>
-  </si>
-  <si>
     <t>iis-student30</t>
   </si>
   <si>
@@ -315,10 +312,10 @@
     <t>Instructor</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>iis-student34</t>
+  </si>
+  <si>
+    <t>iis-student35</t>
   </si>
 </sst>
 </file>
@@ -779,7 +776,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,10 +790,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
@@ -813,17 +810,17 @@
     </row>
     <row r="2" spans="1:17" ht="27" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
@@ -831,70 +828,70 @@
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -907,115 +904,115 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.35">
@@ -1027,19 +1024,19 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1051,7 +1048,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="26" x14ac:dyDescent="0.3">
@@ -1059,10 +1056,10 @@
     </row>
     <row r="25" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1079,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935CD4B2-296E-3842-BB6A-4DBF3071FB4D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1091,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -1161,10 +1158,10 @@
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -1184,10 +1181,10 @@
     </row>
     <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -1207,10 +1204,10 @@
     </row>
     <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1230,10 +1227,10 @@
     </row>
     <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -1253,10 +1250,10 @@
     </row>
     <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -1276,10 +1273,10 @@
     </row>
     <row r="9" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -1322,10 +1319,10 @@
     </row>
     <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -1345,10 +1342,10 @@
     </row>
     <row r="12" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -1368,10 +1365,10 @@
     </row>
     <row r="13" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -1391,10 +1388,10 @@
     </row>
     <row r="14" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -1414,10 +1411,10 @@
     </row>
     <row r="15" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -1437,10 +1434,10 @@
     </row>
     <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
@@ -1460,10 +1457,10 @@
     </row>
     <row r="17" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -1474,21 +1471,19 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>92</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
@@ -1499,21 +1494,19 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -1524,7 +1517,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1547,7 +1540,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1556,7 +1549,7 @@
     </row>
     <row r="21" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>1</v>
@@ -1570,7 +1563,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1593,7 +1586,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>

--- a/tf-dev-vm-access.xlsx
+++ b/tf-dev-vm-access.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_6015683308586355968/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{9292CEA0-EBA6-9D44-B8BC-40E8885AB793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59172441-B2EA-CD4C-96FE-D1AB57FA4A6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD11CE84-6D5B-9346-ACCA-E96AFB75BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3180" windowWidth="27960" windowHeight="21100" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
+    <workbookView xWindow="3080" yWindow="3180" windowWidth="27960" windowHeight="21100" activeTab="1" xr2:uid="{17AF21C6-E61B-994C-83EC-C5D121A671AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1563,7 +1563,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1586,7 +1586,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
